--- a/pesantren/tahfidz/laporan tahfidz/2023/oktober.xlsx
+++ b/pesantren/tahfidz/laporan tahfidz/2023/oktober.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\pesantren\tahfidz\laporan tahfidz\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF05766-AE44-44CF-B07C-EA198BB06F98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1077B1BD-E08A-4FF2-A6C5-C430B94937DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
+    <sheet name="2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>Keterangan</t>
   </si>
@@ -142,6 +143,54 @@
   </si>
   <si>
     <t>1 juz (kurang 5 juz)</t>
+  </si>
+  <si>
+    <t>Juz 1, 6B</t>
+  </si>
+  <si>
+    <t>2 juz (kurang 1 juz)</t>
+  </si>
+  <si>
+    <t>Juz 8, 1B</t>
+  </si>
+  <si>
+    <t>12 halaman</t>
+  </si>
+  <si>
+    <t>8 juz (kurang 2 juz)</t>
+  </si>
+  <si>
+    <t>Juz 2, 9A</t>
+  </si>
+  <si>
+    <t>17 halaman</t>
+  </si>
+  <si>
+    <t>3 juz (kurang 1 juz)</t>
+  </si>
+  <si>
+    <t>Juz 13, 10A</t>
+  </si>
+  <si>
+    <t>15 halaman</t>
+  </si>
+  <si>
+    <t>10 juz (kurang 4 juz)</t>
+  </si>
+  <si>
+    <t>Pulang</t>
+  </si>
+  <si>
+    <t>4 juz (kurang 1 juz)</t>
+  </si>
+  <si>
+    <t>Juz 5, 4B</t>
+  </si>
+  <si>
+    <t>16 halaman</t>
+  </si>
+  <si>
+    <t>3 juz (kurang 3 juz)</t>
   </si>
 </sst>
 </file>
@@ -470,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B7087E-49FB-4407-934F-CF5514B11860}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,4 +706,170 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64056AE-50B7-48BE-A3E6-59CEB8045851}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pesantren/tahfidz/laporan tahfidz/2023/oktober.xlsx
+++ b/pesantren/tahfidz/laporan tahfidz/2023/oktober.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\pesantren\tahfidz\laporan tahfidz\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1077B1BD-E08A-4FF2-A6C5-C430B94937DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C38459A-0CE0-43A2-BC06-0A34982623CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
     <sheet name="2" sheetId="3" r:id="rId2"/>
+    <sheet name="3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="57">
   <si>
     <t>Keterangan</t>
   </si>
@@ -191,6 +192,12 @@
   </si>
   <si>
     <t>3 juz (kurang 3 juz)</t>
+  </si>
+  <si>
+    <t>Baru Kholis yang direkap</t>
+  </si>
+  <si>
+    <t>Juz 1, 8B</t>
   </si>
 </sst>
 </file>
@@ -712,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64056AE-50B7-48BE-A3E6-59CEB8045851}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -872,4 +879,175 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE61FE58-F1EF-4C91-BE8F-C67A520C3627}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>